--- a/ELEKEN_飛行機班予算_R6_1.1.0.xlsx
+++ b/ELEKEN_飛行機班予算_R6_1.1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yutomonceau/Desktop/Git/JA1YNX/Plane-R6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C6DBD08-EF1A-3A4C-A742-AA0DFA37362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A92FA-78C9-854F-B4BE-30F7806B5ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="760" windowWidth="29340" windowHeight="18880" xr2:uid="{A8EBACB4-888D-AF45-B455-065BB4C56F6C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>班員</t>
   </si>
@@ -660,127 +660,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558801</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>27808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>376862</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220133</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="中かっこ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{231060D3-F699-BFFE-5407-0265F3C19B3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4699001" y="1822741"/>
-          <a:ext cx="4703328" cy="1970325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bracePair">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>558801</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>27808</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>376862</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>220133</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="中かっこ 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1735F7E-6388-0C4A-B39F-59CB4DDCA7FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4686301" y="1831208"/>
-          <a:ext cx="4694861" cy="1970325"/>
-        </a:xfrm>
-        <a:prstGeom prst="bracePair">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" kern="1200"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,8 +981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD15993-A8BD-9A41-8F43-5718CCD74C0A}">
   <dimension ref="B4:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1137,7 +1016,7 @@
       </c>
       <c r="F6" s="17">
         <f>SUM(H8:H159)</f>
-        <v>42782</v>
+        <v>43102</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1145,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>11</v>
@@ -1166,7 +1045,7 @@
       </c>
       <c r="C8" s="22">
         <f>F6</f>
-        <v>42782</v>
+        <v>43102</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>16</v>
@@ -1178,7 +1057,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="12">
-        <f t="shared" ref="H8:H28" si="0">F8*G8</f>
+        <f t="shared" ref="H8:H20" si="0">F8*G8</f>
         <v>6980</v>
       </c>
     </row>
@@ -1209,7 +1088,7 @@
       </c>
       <c r="C10" s="22">
         <f>(C8-C9)/C7</f>
-        <v>8556.4</v>
+        <v>10775.5</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>8</v>
@@ -1267,7 +1146,7 @@
       </c>
       <c r="C13" s="27">
         <f>(C11-C10)*C7</f>
-        <v>-42782</v>
+        <v>-43102</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>10</v>
@@ -1306,11 +1185,11 @@
         <v>340</v>
       </c>
       <c r="G15" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H15" s="12">
         <f t="shared" si="0"/>
-        <v>1700</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="16" spans="2:8">
@@ -1390,123 +1269,108 @@
     </row>
     <row r="21" spans="4:8">
       <c r="E21" s="13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F21" s="10">
-        <v>340</v>
-      </c>
-      <c r="G21" s="6">
-        <v>3</v>
+        <v>466</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
       </c>
       <c r="H21" s="12">
-        <f t="shared" si="0"/>
-        <v>1020</v>
+        <f>F21*G21</f>
+        <v>466</v>
       </c>
     </row>
     <row r="22" spans="4:8">
       <c r="D22" s="9"/>
       <c r="E22" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F22" s="10">
-        <v>466</v>
-      </c>
-      <c r="G22" s="18">
-        <v>1</v>
+        <v>760</v>
+      </c>
+      <c r="G22" s="6">
+        <v>2</v>
       </c>
       <c r="H22" s="12">
-        <f t="shared" si="0"/>
-        <v>466</v>
+        <f>F22*G22</f>
+        <v>1520</v>
       </c>
     </row>
     <row r="23" spans="4:8">
       <c r="E23" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F23" s="10">
-        <v>760</v>
+        <v>210</v>
       </c>
       <c r="G23" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" s="12">
-        <f t="shared" si="0"/>
-        <v>1520</v>
+        <f>F23*G23</f>
+        <v>210</v>
       </c>
     </row>
     <row r="24" spans="4:8">
       <c r="E24" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="10">
-        <v>210</v>
+        <v>550</v>
       </c>
       <c r="G24" s="6">
         <v>1</v>
       </c>
       <c r="H24" s="12">
-        <f t="shared" si="0"/>
-        <v>210</v>
+        <f>F24*G24</f>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="4:8">
       <c r="E25" s="13" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F25" s="10">
-        <v>550</v>
+        <v>1680</v>
       </c>
       <c r="G25" s="6">
         <v>1</v>
       </c>
       <c r="H25" s="12">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="4:8">
-      <c r="E26" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F26" s="10">
+        <f>F25*G25</f>
         <v>1680</v>
       </c>
-      <c r="G26" s="6">
+    </row>
+    <row r="26" spans="4:8" ht="21" thickBot="1">
+      <c r="E26" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="29">
+        <v>948</v>
+      </c>
+      <c r="G26" s="30">
         <v>1</v>
       </c>
-      <c r="H26" s="12">
-        <f t="shared" si="0"/>
-        <v>1680</v>
+      <c r="H26" s="31">
+        <f>F26*G26</f>
+        <v>948</v>
       </c>
     </row>
     <row r="27" spans="4:8" ht="21" thickBot="1">
-      <c r="E27" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F27" s="29">
-        <v>948</v>
-      </c>
-      <c r="G27" s="30">
+      <c r="E27" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="32">
+        <v>2000</v>
+      </c>
+      <c r="G27" s="33">
         <v>1</v>
       </c>
-      <c r="H27" s="31">
-        <f t="shared" si="0"/>
-        <v>948</v>
-      </c>
-    </row>
-    <row r="28" spans="4:8" ht="21" thickBot="1">
-      <c r="E28" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" s="32">
-        <v>1000</v>
-      </c>
-      <c r="G28" s="33">
-        <v>1</v>
-      </c>
-      <c r="H28" s="34">
-        <f t="shared" si="0"/>
-        <v>1000</v>
+      <c r="H27" s="34">
+        <f>F27*G27</f>
+        <v>2000</v>
       </c>
     </row>
     <row r="30" spans="4:8">
@@ -2020,6 +1884,5 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>